--- a/experiment_results/SBFL_ONLY/ExamDB/1Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/ExamDB/1Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -12793,10 +12793,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>0.796812749003984</v>
+        <v>19.12350597609562</v>
       </c>
       <c r="E2">
         <v>251</v>
@@ -12810,10 +12810,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>1.195219123505976</v>
+        <v>14.74103585657371</v>
       </c>
       <c r="E3">
         <v>251</v>
@@ -12895,10 +12895,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>2.390438247011952</v>
+        <v>3.585657370517929</v>
       </c>
       <c r="E8">
         <v>251</v>
@@ -12929,10 +12929,10 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>1.99203187250996</v>
+        <v>14.74103585657371</v>
       </c>
       <c r="E10">
         <v>251</v>
@@ -12946,10 +12946,10 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>1.99203187250996</v>
+        <v>3.187250996015936</v>
       </c>
       <c r="E11">
         <v>251</v>
@@ -12997,10 +12997,10 @@
         <v>8</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>1.195219123505976</v>
+        <v>65.73705179282868</v>
       </c>
       <c r="E14">
         <v>251</v>
@@ -13099,10 +13099,10 @@
         <v>41</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>2.788844621513944</v>
+        <v>19.12350597609562</v>
       </c>
       <c r="E20">
         <v>251</v>
@@ -13201,10 +13201,10 @@
         <v>53</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>1.195219123505976</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E26">
         <v>251</v>
@@ -13218,10 +13218,10 @@
         <v>55</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="D27">
-        <v>1.593625498007968</v>
+        <v>43.42629482071713</v>
       </c>
       <c r="E27">
         <v>251</v>
@@ -13235,10 +13235,10 @@
         <v>57</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>3.585657370517929</v>
+        <v>16.33466135458167</v>
       </c>
       <c r="E28">
         <v>251</v>
@@ -13252,10 +13252,10 @@
         <v>59</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>3.585657370517929</v>
+        <v>5.179282868525896</v>
       </c>
       <c r="E29">
         <v>251</v>
@@ -13320,10 +13320,10 @@
         <v>67</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>1.99203187250996</v>
+        <v>8.764940239043826</v>
       </c>
       <c r="E33">
         <v>251</v>
@@ -13354,10 +13354,10 @@
         <v>71</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>0.796812749003984</v>
+        <v>2.788844621513944</v>
       </c>
       <c r="E35">
         <v>251</v>
@@ -13371,10 +13371,10 @@
         <v>73</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>1.99203187250996</v>
+        <v>10.75697211155378</v>
       </c>
       <c r="E36">
         <v>251</v>
@@ -13439,10 +13439,10 @@
         <v>81</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>0.398406374501992</v>
+        <v>19.9203187250996</v>
       </c>
       <c r="E40">
         <v>251</v>
@@ -13473,10 +13473,10 @@
         <v>85</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>0.796812749003984</v>
+        <v>19.12350597609562</v>
       </c>
       <c r="E42">
         <v>251</v>
@@ -13524,10 +13524,10 @@
         <v>91</v>
       </c>
       <c r="C45">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>5.577689243027888</v>
+        <v>13.94422310756972</v>
       </c>
       <c r="E45">
         <v>251</v>
@@ -13575,10 +13575,10 @@
         <v>97</v>
       </c>
       <c r="C48">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>3.585657370517929</v>
+        <v>13.94422310756972</v>
       </c>
       <c r="E48">
         <v>251</v>
@@ -13592,10 +13592,10 @@
         <v>99</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>0.796812749003984</v>
+        <v>8.366533864541832</v>
       </c>
       <c r="E49">
         <v>251</v>
